--- a/DATA EIACC.xlsx
+++ b/DATA EIACC.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f38d95d548aa5e3/Escritorio/ESTADO DATAS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\Diseño DATA's (1)\DATA-EIACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{7A9B0BCF-9EF1-457F-BBC2-2A6526A1489D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B9D1245-13E4-47DF-A573-9688AAE77979}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6880EDE7-F2B3-4A51-B9AF-A87A9CA23191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB4D0357-4263-4496-B482-8549C20015BF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{BB4D0357-4263-4496-B482-8549C20015BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Glosario" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t xml:space="preserve">Producto Inmediato </t>
   </si>
@@ -49,13 +49,112 @@
   </si>
   <si>
     <t>DATA EIACC</t>
+  </si>
+  <si>
+    <t>DDTS</t>
+  </si>
+  <si>
+    <t>Riesgo DDTS por comuna</t>
+  </si>
+  <si>
+    <t>Desertificación, Degradación de Tierras y Sequía</t>
+  </si>
+  <si>
+    <t>Desertificación</t>
+  </si>
+  <si>
+    <t>Degradación de la tierra ocurrida en zonas áridas, semiáridas y subhúmedas a causa de diversos factores, incluyendo variaciones climáticas y actividades humanas. Cuando la degradación de las tierras sucede en tierras secas, se suelen crear condiciones similares a las de un desierto.</t>
+  </si>
+  <si>
+    <t>Degradación de las tierras</t>
+  </si>
+  <si>
+    <t>Reducción o pérdida de la productividad biológica o económica y la complejidad de las tierras agrícolas de secano, las tierra de cultivo de regadío o las dehesas, los pastizales los bosques y las tierras arboladas, ocasionada, en las zonas áridas, semiáridas o  subhúmedas secas, por los sistemas de utilización de la tierra o por un proceso o una combinación de procesos, incluidos los resultantes de actividades humanas y pautas de poblamiento, tales como (i) la erosión causada por el viento o el agua; (ii) el deterioro de las propiedades físicas, química y biológicas o de las propiedades económicas del suelo, y; (iii) la pérdida duradera de vegetación natural.</t>
+  </si>
+  <si>
+    <t>Sequía</t>
+  </si>
+  <si>
+    <t>Fenómeno que se produce naturalmente cuando las lluvias han sido considerablemente inferiores a los niveles normales registrados, causando un agudo desequilibrio hídrico que perjudica los sistemas de producción de recursos de tierras.</t>
+  </si>
+  <si>
+    <t>CONAF. 2016. Nota Informativa N° 5 ENCCRV.</t>
+  </si>
+  <si>
+    <t>Cuantificación</t>
+  </si>
+  <si>
+    <t>Degradación</t>
+  </si>
+  <si>
+    <t>Índice de Sequía</t>
+  </si>
+  <si>
+    <t>CONCEPTO</t>
+  </si>
+  <si>
+    <t>DEFINICIÓN</t>
+  </si>
+  <si>
+    <t>FUENTE</t>
+  </si>
+  <si>
+    <t>Núñez et al. (2011)</t>
+  </si>
+  <si>
+    <t>Integración riesgo DDTS</t>
+  </si>
+  <si>
+    <t>Ds*0,4+DT*0,3+S*0,3</t>
+  </si>
+  <si>
+    <t>Detalle en Glosario</t>
+  </si>
+  <si>
+    <t>Núñez et al. 2011</t>
+  </si>
+  <si>
+    <t>Objetos de Protección</t>
+  </si>
+  <si>
+    <t>Subvariables</t>
+  </si>
+  <si>
+    <t>PP total mensual</t>
+  </si>
+  <si>
+    <t>PP media mensual</t>
+  </si>
+  <si>
+    <t>PP mínima</t>
+  </si>
+  <si>
+    <t>PP máxima</t>
+  </si>
+  <si>
+    <t>T° mensual</t>
+  </si>
+  <si>
+    <t>T° media mensual</t>
+  </si>
+  <si>
+    <t>T° mínima</t>
+  </si>
+  <si>
+    <t>T° máxima</t>
+  </si>
+  <si>
+    <t>Informa sobre la condición actual de
+sequía en Chile combinando indicadores de la
+sequía meteorológica (Índice Estandarizado
+de Precipitaciones, IEP), la sequía hidrológica (Índice Estandarizado de Caudales, IEC) y la sequía agrícola, estimado a tráves del Índice de Vegetación de Diferencias Normalizadas (NDVI). El índice de sequía combinado considera tres impactos de acuerdo a los niveles de intensidad: Nivel 1, sequía leve producto de déficit de precipitación; Nivel 2, sequía moderada producto de un déficit de caudales, adicional al déficit de precipiación, y; Nivel 3, sequía grave producto de déficit hídrico del suelo que afecta a la vegetación, además de un déficit en el caudal y las precipitaciones.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +176,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -92,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -101,27 +208,134 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="9"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -138,6 +352,231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133609</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C6E1D1-AD19-4193-A1E8-E1F0F412ADD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8372475" y="476250"/>
+          <a:ext cx="5038984" cy="1533604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>174258</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>155388</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCB9734-D7A0-4B92-A43A-ADCDED9874EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13560425" y="454025"/>
+          <a:ext cx="2939683" cy="1501588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>475862</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99D6DEA8-CA8C-48C6-AC6D-46756C45B33A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16849724" y="339725"/>
+          <a:ext cx="2237988" cy="1585101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>551471</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1970678</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E81DDD0-D8D9-48DC-9CB3-F9B156962F12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239125" y="2016125"/>
+          <a:ext cx="4828196" cy="1757953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>229634</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431003</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F762BC8-CA82-43A7-8DCB-24870CC323F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13507484" y="2162175"/>
+          <a:ext cx="4770194" cy="1787525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,23 +876,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7DAA83-D4DB-4005-9992-9EED1162C676}">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.90625" style="1"/>
-    <col min="2" max="2" width="35.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.453125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.90625" style="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="4" width="29.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.453125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -461,7 +901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -469,19 +909,294 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6357AC-AB64-4C99-BE5E-BA095FC02101}">
+  <dimension ref="B4:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" style="4"/>
+    <col min="2" max="2" width="20.90625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="45.81640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.1796875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="10.90625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="78" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="169" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="65" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="182" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DATA EIACC.xlsx
+++ b/DATA EIACC.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\Diseño DATA's (1)\DATA-EIACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6880EDE7-F2B3-4A51-B9AF-A87A9CA23191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DF779F-03B7-4A71-BB9E-16FCA86F561A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{BB4D0357-4263-4496-B482-8549C20015BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{BB4D0357-4263-4496-B482-8549C20015BF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Resumen" sheetId="1" r:id="rId1"/>
     <sheet name="Glosario" sheetId="2" r:id="rId2"/>
+    <sheet name="Detalle" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +34,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Karen Farías Proschle</author>
+  </authors>
+  <commentList>
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{345A5388-DB0E-4F0E-B705-3FD9304EA7CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Karen Farías Proschle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Glaciar de Montaña, región araucanía, muestra en el mapa un punto en Puente Alto.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="118">
   <si>
     <t xml:space="preserve">Producto Inmediato </t>
   </si>
@@ -69,9 +104,6 @@
     <t>Degradación de las tierras</t>
   </si>
   <si>
-    <t>Reducción o pérdida de la productividad biológica o económica y la complejidad de las tierras agrícolas de secano, las tierra de cultivo de regadío o las dehesas, los pastizales los bosques y las tierras arboladas, ocasionada, en las zonas áridas, semiáridas o  subhúmedas secas, por los sistemas de utilización de la tierra o por un proceso o una combinación de procesos, incluidos los resultantes de actividades humanas y pautas de poblamiento, tales como (i) la erosión causada por el viento o el agua; (ii) el deterioro de las propiedades físicas, química y biológicas o de las propiedades económicas del suelo, y; (iii) la pérdida duradera de vegetación natural.</t>
-  </si>
-  <si>
     <t>Sequía</t>
   </si>
   <si>
@@ -144,17 +176,498 @@
     <t>T° máxima</t>
   </si>
   <si>
-    <t>Informa sobre la condición actual de
-sequía en Chile combinando indicadores de la
-sequía meteorológica (Índice Estandarizado
+    <t>Salud humana</t>
+  </si>
+  <si>
+    <t>Suelo</t>
+  </si>
+  <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Biota</t>
+  </si>
+  <si>
+    <t>Aire</t>
+  </si>
+  <si>
+    <t>Acceso a RRNN utilizados por el GH</t>
+  </si>
+  <si>
+    <t>Circulación y conectividad del GH</t>
+  </si>
+  <si>
+    <t>Acceso y calidad de servicios utilizados por el GH</t>
+  </si>
+  <si>
+    <t>Ejercicio de tradiciones</t>
+  </si>
+  <si>
+    <t>Alterar la organización social del GHPPI</t>
+  </si>
+  <si>
+    <t>Recursos y áreas protegidas</t>
+  </si>
+  <si>
+    <t>Población Protegida</t>
+  </si>
+  <si>
+    <t>Área con valor para la observación astronómica</t>
+  </si>
+  <si>
+    <t>Valor paisajístico</t>
+  </si>
+  <si>
+    <t>Valor turístico</t>
+  </si>
+  <si>
+    <t>Monumento Nacional</t>
+  </si>
+  <si>
+    <t>Patrimonio cultural – incluido el patrimonio cultural indígena</t>
+  </si>
+  <si>
+    <t>Lugares o sitios donde se llevan a cabo manifestaciones habituales del GH</t>
+  </si>
+  <si>
+    <t>Estado Producto</t>
+  </si>
+  <si>
+    <t>Estado Variable</t>
+  </si>
+  <si>
+    <t>No iniciado</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>Animales silvestres, Plantas y Algas (nativas), Hongos</t>
+  </si>
+  <si>
+    <t>Intervención, uso, o restricción al acceso de los RRNN, utilizados como sustento económico del grupo o para cualquier otro uso tradicional como el medicinal, espiritual, cultural, u otro</t>
+  </si>
+  <si>
+    <t>Obstrucción o restricción a la libre circulación, conectividad o el aumento significativo de los tiempos de desplazamiento</t>
+  </si>
+  <si>
+    <t>Alteración al acceso o a la calidad de bienes, equipamientos, servicios o infraestructura básica.</t>
+  </si>
+  <si>
+    <t>Dificultad o impedimento para el ejercicio o la manifestación de tradiciones, cultura o intereses comunitarios</t>
+  </si>
+  <si>
+    <t>Alteración de formas de organización social particular de los grupos humanos pertenecientes a pueblos indígenas</t>
+  </si>
+  <si>
+    <t>Población indígena</t>
+  </si>
+  <si>
+    <t>Atributos naturales del paisaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor cultural o Valor paisajístico o Valor patrimonial + flujo de turistas; Zona de Interés Turístico </t>
+  </si>
+  <si>
+    <t>Construcciones – lugares o sitios</t>
+  </si>
+  <si>
+    <t>Lugares o sitios</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Parque marino; Área Marina Costera Protegida; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reserva marina;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parque nacional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reserva nacional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; Reserva forestal; Reserva región virgen; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monumento natural</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; Santuario de la naturaleza; Recursos protegidos; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Humedales de importancia internacional (RAMSAR)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acuífero que alimenta vegas y bofedales en las regiones del Arica y Parinacota, Tarapacá y Antofagasta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; Glaciares; Bien nacional protegido; Sitios prioritarios (Ley 19.300 art. 11, letra d); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Humedales declarados sitios prioritarios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; Valor ambiental del territorio que preste servicios ecosistémicos locales</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monumento histórico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; Monumentos públicos; Monumentos arqueológicos (bienes arqueológicos y paleontológicos); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zonas típicas o pintorescas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; Zonas de conservación histórica; Inmuebles de conservación histórica; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Santuarios de la Naturaleza</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Suelo,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sedimentos subacuáticos </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Aguas superficiales</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Aguas subterráneas</t>
+    </r>
+  </si>
+  <si>
+    <t>Informa sobre la condición actual de sequía en Chile combinando indicadores de la sequía meteorológica (Índice Estandarizado
 de Precipitaciones, IEP), la sequía hidrológica (Índice Estandarizado de Caudales, IEC) y la sequía agrícola, estimado a tráves del Índice de Vegetación de Diferencias Normalizadas (NDVI). El índice de sequía combinado considera tres impactos de acuerdo a los niveles de intensidad: Nivel 1, sequía leve producto de déficit de precipitación; Nivel 2, sequía moderada producto de un déficit de caudales, adicional al déficit de precipiación, y; Nivel 3, sequía grave producto de déficit hídrico del suelo que afecta a la vegetación, además de un déficit en el caudal y las precipitaciones.</t>
+  </si>
+  <si>
+    <t>Reducción o pérdida de la productividad biológica o económica y la complejidad de las tierras agrícolas de secano, las tierra de cultivo de regadío o las dehesas, los pastizales los bosques y las tierras arboladas, ocasionada, en las zonas áridas, semiáridas o subhúmedas secas, por los sistemas de utilización de la tierra o por un proceso o una combinación de procesos, incluidos los resultantes de actividades humanas y pautas de poblamiento, tales como (i) la erosión causada por el viento o el agua; (ii) el deterioro de las propiedades físicas, química y biológicas o de las propiedades económicas del suelo, y; (iii) la pérdida duradera de vegetación natural.</t>
+  </si>
+  <si>
+    <t>DATA RIESGO?</t>
+  </si>
+  <si>
+    <t>Cruce área de proyectos con presencia de OP</t>
+  </si>
+  <si>
+    <t>Análisis área de proyecto</t>
+  </si>
+  <si>
+    <t>Comentario Variables</t>
+  </si>
+  <si>
+    <t>Áreas urbanas</t>
+  </si>
+  <si>
+    <t>Habitantes - Población riesgo</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>n°</t>
+  </si>
+  <si>
+    <t>Densidad población de riesgo</t>
+  </si>
+  <si>
+    <t>km2</t>
+  </si>
+  <si>
+    <t>Población de riesgo</t>
+  </si>
+  <si>
+    <t>Menores de 12 años o mayores de 60 años</t>
+  </si>
+  <si>
+    <t>n°hab/km2</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>CENSO</t>
+  </si>
+  <si>
+    <t>Formato</t>
+  </si>
+  <si>
+    <t>Polígonos - shp</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>BCN</t>
+  </si>
+  <si>
+    <t>Propia</t>
+  </si>
+  <si>
+    <t>Masas de agua superficiales</t>
+  </si>
+  <si>
+    <t>Red hidrográfica</t>
+  </si>
+  <si>
+    <t>Polilíneas - shp</t>
+  </si>
+  <si>
+    <t>Acuíferos</t>
+  </si>
+  <si>
+    <t>Polígonos - JPG</t>
+  </si>
+  <si>
+    <t>Embalses</t>
+  </si>
+  <si>
+    <t>Glaciares</t>
+  </si>
+  <si>
+    <t>Catastro BN</t>
+  </si>
+  <si>
+    <t>Formaciones Vegetacionales Gajardo</t>
+  </si>
+  <si>
+    <t>Polígonos (?) - shp</t>
+  </si>
+  <si>
+    <t>Pisos Vegetacionales Pliscoff 2014</t>
+  </si>
+  <si>
+    <t>Ecosistemas amenzados - Hot spot Chile central</t>
+  </si>
+  <si>
+    <t>Sitios ER Biodiversidad</t>
+  </si>
+  <si>
+    <t>shp</t>
+  </si>
+  <si>
+    <t>Plan de Descontaminación y Prevención Atmosférica Zonas Latentes y Zonas Saturadas</t>
+  </si>
+  <si>
+    <t>SINCA</t>
+  </si>
+  <si>
+    <t>Puntos - UTM</t>
+  </si>
+  <si>
+    <t>IDE</t>
+  </si>
+  <si>
+    <t>Presencia OP en comunas según riesgo DDTS</t>
+  </si>
+  <si>
+    <t>Presencia OP</t>
+  </si>
+  <si>
+    <t>Presencia de Objetos de Protección (OP)</t>
+  </si>
+  <si>
+    <t>En proceso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,8 +697,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +769,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,61 +808,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -298,44 +827,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -360,14 +1016,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133609</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>209629</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>450929</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -404,14 +1060,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>282575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>174258</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>155388</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>418913</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -448,14 +1104,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>475862</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>121426</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>499251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -492,14 +1148,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>551471</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1970678</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>294278</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -536,14 +1192,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>229634</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>361950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>431003</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -876,10 +1532,715 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7DAA83-D4DB-4005-9992-9EED1162C676}">
-  <dimension ref="B2:G30"/>
+  <dimension ref="A2:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="38.6328125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="42" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.90625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="10.90625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="24" x14ac:dyDescent="0.35">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B28" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6357AC-AB64-4C99-BE5E-BA095FC02101}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="45.81640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.1796875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="10.90625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="132" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="132" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" ht="39" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" ht="108" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFE1880-A894-4B69-800E-12C13FE1901B}">
+  <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -887,13 +2248,16 @@
     <col min="1" max="1" width="10.90625" style="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
     <col min="3" max="4" width="29.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.453125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.90625" style="1"/>
+    <col min="5" max="5" width="11.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35.6328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.453125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -901,7 +2265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -909,294 +2273,662 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="7"/>
+      <c r="C27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
+      <c r="D28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="7"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="7"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="7"/>
+      <c r="C31" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+      <c r="C32" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="6"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="7"/>
+      <c r="C37" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="7"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="7"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="7"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="7"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="7"/>
+      <c r="C42" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="7"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="7"/>
+      <c r="C44" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="7"/>
+      <c r="C45" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="B46" s="7"/>
+      <c r="C46" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="7"/>
+      <c r="C47" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="B48" s="7"/>
+      <c r="C48" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="7"/>
+      <c r="C49" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="7"/>
+      <c r="C50" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="B51" s="7"/>
+      <c r="C51" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="7"/>
+      <c r="C52" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="7"/>
+      <c r="C53" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="7"/>
+      <c r="C54" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="B55" s="7"/>
+      <c r="C55" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="B56" s="7"/>
+      <c r="C56" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6357AC-AB64-4C99-BE5E-BA095FC02101}">
-  <dimension ref="B4:D13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.90625" style="4"/>
-    <col min="2" max="2" width="20.90625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="45.81640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.1796875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="10.90625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="78" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="169" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="65" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="182" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C13" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DATA EIACC.xlsx
+++ b/DATA EIACC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\Diseño DATA's (1)\DATA-EIACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DF779F-03B7-4A71-BB9E-16FCA86F561A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073C6D7D-5679-427F-A5DD-74B9188DF77A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{BB4D0357-4263-4496-B482-8549C20015BF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BB4D0357-4263-4496-B482-8549C20015BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="119">
   <si>
     <t xml:space="preserve">Producto Inmediato </t>
   </si>
@@ -661,6 +661,9 @@
   </si>
   <si>
     <t>En proceso</t>
+  </si>
+  <si>
+    <t>Cruce área de proyectos con presencia de OP en comunas según riesgo DDTS</t>
   </si>
 </sst>
 </file>
@@ -1535,13 +1538,13 @@
   <dimension ref="A2:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1796875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="41" style="17" customWidth="1"/>
     <col min="3" max="3" width="14.81640625" style="17" customWidth="1"/>
     <col min="4" max="4" width="38.6328125" style="17" customWidth="1"/>
     <col min="5" max="5" width="42" style="17" customWidth="1"/>
@@ -1620,7 +1623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="39" x14ac:dyDescent="0.35">
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36" t="s">
@@ -1633,7 +1636,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="25"/>
       <c r="I7" s="27" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>55</v>
@@ -1751,7 +1754,7 @@
       </c>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="26" x14ac:dyDescent="0.35">
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
       <c r="D17" s="29" t="s">
@@ -1873,7 +1876,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="29" t="s">
         <v>114</v>
       </c>
